--- a/biology/Biochimie/Cellulose_diéthylaminoéthyle/Cellulose_diéthylaminoéthyle.xlsx
+++ b/biology/Biochimie/Cellulose_diéthylaminoéthyle/Cellulose_diéthylaminoéthyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cellulose_di%C3%A9thylamino%C3%A9thyle</t>
+          <t>Cellulose_diéthylaminoéthyle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cellulose diéthylaminoéthyle (DEAE-C) est une résine chargée positivement utilisée en chromatographie échangeuse d'anions (voir Chromatographie en phase liquide) permettant la rétention (à pH basique) et la séparation spécifique de molécules chargées négativement. La force de rétention qui régit l'association entre les molécules chargées et la matrice dépend de la force ionique et du pH de la solution d'élution. Elle peut être modulée en agissant sur ces deux composantes, ce qui conduit à la séparation.
 La cellulose DEAE est très largement utilisée pour la purification des protéines en solution. Les protéines retenues sur la colonne peuvent être libérées progressivement :
